--- a/DATA_goal/Junction_Flooding_467.xlsx
+++ b/DATA_goal/Junction_Flooding_467.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>44798.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.76</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.05</v>
+        <v>30.49</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.55</v>
+        <v>25.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.42</v>
+        <v>34.24</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.84</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.9</v>
+        <v>169</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.11</v>
+        <v>31.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.94</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.1</v>
+        <v>30.98</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.25</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44798.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.7</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.94</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.67</v>
+        <v>66.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.77</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44798.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>3.82</v>
+        <v>38.21</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_467.xlsx
+++ b/DATA_goal/Junction_Flooding_467.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44798.54861111111</v>
+        <v>45148.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44798.55555555555</v>
+        <v>45148.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.76</v>
+        <v>6.726</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.9</v>
+        <v>4.368</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.452</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.49</v>
+        <v>14.491</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.48</v>
+        <v>10.941</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.04</v>
+        <v>5.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.24</v>
+        <v>22.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.06</v>
+        <v>8.144</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.76</v>
+        <v>3.334</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.08</v>
+        <v>4.709</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.14</v>
+        <v>5.753</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.84</v>
+        <v>6.013</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.4</v>
+        <v>1.695</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.02</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.1</v>
+        <v>7.28</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.17</v>
+        <v>4.834</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.7</v>
+        <v>1.396</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.783</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>169</v>
+        <v>72.813</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.05</v>
+        <v>14.886</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.83</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.78</v>
+        <v>9.532</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.91</v>
+        <v>4.837</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.2</v>
+        <v>1.399</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.94</v>
+        <v>10.833</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.82</v>
+        <v>3.987</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.64</v>
+        <v>4.735</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.57</v>
+        <v>6.044</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>2.2</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.98</v>
+        <v>21.172</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.25</v>
+        <v>2.512</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.82</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44798.5625</v>
+        <v>45148.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.55</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.49</v>
+        <v>15.429</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.466</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.7</v>
+        <v>45.926</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.62</v>
+        <v>37.234</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.42</v>
+        <v>16.562</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.81</v>
+        <v>60.976</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.1</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.2</v>
+        <v>11.268</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.94</v>
+        <v>16.631</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.61</v>
+        <v>18.408</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.81</v>
+        <v>19.442</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.91</v>
+        <v>5.313</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.13</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.77</v>
+        <v>23.451</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.47</v>
+        <v>14.059</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.87</v>
+        <v>1.052</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.968</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.69</v>
+        <v>244.465</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.21</v>
+        <v>46.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.58</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.77</v>
+        <v>30.894</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.04</v>
+        <v>16.182</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.97</v>
+        <v>2.63</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.19</v>
+        <v>30.142</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.98</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.85</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.62</v>
+        <v>14.136</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.68</v>
+        <v>19.343</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.54</v>
+        <v>55.414</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.11</v>
+        <v>8.523</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.32</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44798.56944444445</v>
+        <v>45148.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.34</v>
+        <v>16.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.73</v>
+        <v>11.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.8</v>
+        <v>35.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.52</v>
+        <v>28.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.33</v>
+        <v>12.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.38</v>
+        <v>51.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.36</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.94</v>
+        <v>8.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3</v>
+        <v>12.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.49</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.57</v>
+        <v>15.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.19</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.19</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.81</v>
+        <v>18.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.82</v>
+        <v>10.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.21</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.09</v>
+        <v>35.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.84</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.33</v>
+        <v>23.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.09</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.62</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.38</v>
+        <v>24.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.45</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.43</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.9</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.49</v>
+        <v>14.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.45</v>
+        <v>46.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.92</v>
+        <v>6.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44798.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.48</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_467.xlsx
+++ b/DATA_goal/Junction_Flooding_467.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -463,19 +463,19 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45148.50694444445</v>
+        <v>44798.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.854</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.494</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.735</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>33.762</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.097</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.381</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>37.784</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.197</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.826</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.635</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.329</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.955</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.981</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.407</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.155</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.858</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.133</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>181.475</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.412</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.452</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.298</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.285</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.349</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.115</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.106</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.918</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.036</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.313</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>33.905</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.108</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45148.51388888889</v>
+        <v>44798.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.726</v>
+        <v>13.762</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.368</v>
+        <v>10.898</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.452</v>
+        <v>0.34</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.491</v>
+        <v>30.485</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.941</v>
+        <v>25.484</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.21</v>
+        <v>13.036</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.653</v>
+        <v>34.239</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.144</v>
+        <v>17.063</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.334</v>
+        <v>7.76</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.709</v>
+        <v>12.084</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.753</v>
+        <v>13.138</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.013</v>
+        <v>13.836</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.695</v>
+        <v>4.403</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.263</v>
+        <v>12.019</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.28</v>
+        <v>18.101</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.834</v>
+        <v>10.169</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.396</v>
+        <v>1.699</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.783</v>
+        <v>1.32</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.813</v>
+        <v>168.998</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.886</v>
+        <v>31.055</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.858</v>
+        <v>10.83</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.532</v>
+        <v>20.777</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.837</v>
+        <v>11.915</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.399</v>
+        <v>2.197</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.833</v>
+        <v>17.94</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.291</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.987</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.735</v>
+        <v>10.638</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.044</v>
+        <v>13.568</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>2.197</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.172</v>
+        <v>30.984</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.512</v>
+        <v>7.252</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.075</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45148.52083333334</v>
+        <v>44798.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.139</v>
+        <v>5.555</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.429</v>
+        <v>4.491</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.466</v>
+        <v>0.081</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.926</v>
+        <v>12.704</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.234</v>
+        <v>10.624</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.562</v>
+        <v>5.42</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.976</v>
+        <v>20.81</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.596</v>
+        <v>7.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.268</v>
+        <v>3.204</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.631</v>
+        <v>4.942</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.408</v>
+        <v>5.613</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.442</v>
+        <v>5.808</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.313</v>
+        <v>1.907</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.542</v>
+        <v>5.134</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.451</v>
+        <v>7.772</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.059</v>
+        <v>4.468</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.052</v>
+        <v>0.868</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.968</v>
+        <v>0.641</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.465</v>
+        <v>66.691</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.18</v>
+        <v>13.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.269</v>
+        <v>4.583</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.894</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.182</v>
+        <v>5.042</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.63</v>
+        <v>0.974</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.142</v>
+        <v>10.192</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.487</v>
+        <v>3.976</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12</v>
+        <v>3.849</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.136</v>
+        <v>4.621</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.343</v>
+        <v>5.678</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>1.041</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.414</v>
+        <v>19.542</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.523</v>
+        <v>3.107</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.09</v>
+        <v>5.319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45148.52777777778</v>
+        <v>44798.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.33</v>
+        <v>3.338</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.93</v>
+        <v>2.733</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.021</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>35.5</v>
+        <v>7.799</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>28.78</v>
+        <v>6.522</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.79</v>
+        <v>3.327</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>51.18</v>
+        <v>13.383</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.78</v>
+        <v>4.359</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.73</v>
+        <v>1.942</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.85</v>
+        <v>2.998</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.24</v>
+        <v>3.491</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.05</v>
+        <v>3.574</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.11</v>
+        <v>1.191</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.78</v>
+        <v>3.189</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.15</v>
+        <v>4.813</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.87</v>
+        <v>2.816</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.602</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.421</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>187.25</v>
+        <v>38.212</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>35.79</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.8</v>
+        <v>2.842</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>23.95</v>
+        <v>5.332</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.53</v>
+        <v>3.092</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.02</v>
+        <v>0.616</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.68</v>
+        <v>6.377</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.42</v>
+        <v>2.448</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>2.43</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.92</v>
+        <v>2.898</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.96</v>
+        <v>3.491</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>46.69</v>
+        <v>12.454</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.58</v>
+        <v>1.923</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+        <v>3.255</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44798.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_467.xlsx
+++ b/DATA_goal/Junction_Flooding_467.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -463,19 +463,19 @@
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44798.54861111111</v>
+        <v>45148.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>15.854</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>10.494</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.735</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>33.762</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>26.097</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>12.381</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>37.784</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>19.197</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>7.826</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>13.329</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>13.955</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.981</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>12.407</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>17.155</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>10.858</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>3.133</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>181.475</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>34.412</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>11.452</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>22.298</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>11.285</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>19.349</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>10.115</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>9.106</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>10.918</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>14.036</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.313</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>33.905</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>6.108</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>14.317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44798.55555555555</v>
+        <v>45148.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.762</v>
+        <v>6.726</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.898</v>
+        <v>4.368</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.452</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.485</v>
+        <v>14.491</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.484</v>
+        <v>10.941</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.036</v>
+        <v>5.21</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.239</v>
+        <v>22.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.063</v>
+        <v>8.144</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.76</v>
+        <v>3.334</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.084</v>
+        <v>4.709</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.138</v>
+        <v>5.753</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.836</v>
+        <v>6.013</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.403</v>
+        <v>1.695</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.019</v>
+        <v>5.263</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.101</v>
+        <v>7.28</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.169</v>
+        <v>4.834</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.699</v>
+        <v>1.396</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.783</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>168.998</v>
+        <v>72.813</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.055</v>
+        <v>14.886</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.83</v>
+        <v>4.858</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.777</v>
+        <v>9.532</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.915</v>
+        <v>4.837</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.197</v>
+        <v>1.399</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.94</v>
+        <v>10.833</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>4.291</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.816000000000001</v>
+        <v>3.987</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.638</v>
+        <v>4.735</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.568</v>
+        <v>6.044</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>2.197</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.984</v>
+        <v>21.172</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.252</v>
+        <v>2.512</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.82</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44798.5625</v>
+        <v>45148.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.555</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.491</v>
+        <v>15.429</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.081</v>
+        <v>1.466</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.704</v>
+        <v>45.926</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.624</v>
+        <v>37.234</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.42</v>
+        <v>16.562</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.81</v>
+        <v>60.976</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.1</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.204</v>
+        <v>11.268</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.942</v>
+        <v>16.631</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.613</v>
+        <v>18.408</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.808</v>
+        <v>19.442</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.907</v>
+        <v>5.313</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.134</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.772</v>
+        <v>23.451</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.468</v>
+        <v>14.059</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.868</v>
+        <v>1.052</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.641</v>
+        <v>0.968</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>66.691</v>
+        <v>244.465</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.21</v>
+        <v>46.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.583</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.768000000000001</v>
+        <v>30.894</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.042</v>
+        <v>16.182</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.974</v>
+        <v>2.63</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.192</v>
+        <v>30.142</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.976</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.849</v>
+        <v>12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.621</v>
+        <v>14.136</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.678</v>
+        <v>19.343</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.041</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.542</v>
+        <v>55.414</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.107</v>
+        <v>8.523</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.319</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44798.56944444445</v>
+        <v>45148.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.338</v>
+        <v>16.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.733</v>
+        <v>11.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.021</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.799</v>
+        <v>35.5</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.522</v>
+        <v>28.78</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.327</v>
+        <v>12.79</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.383</v>
+        <v>51.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.359</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.942</v>
+        <v>8.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.998</v>
+        <v>12.85</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.491</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.574</v>
+        <v>15.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.191</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.189</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.813</v>
+        <v>18.15</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.816</v>
+        <v>10.87</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.602</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.421</v>
+        <v>0.72</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.212</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.090999999999999</v>
+        <v>35.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.842</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.332</v>
+        <v>23.95</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.092</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.616</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.377</v>
+        <v>24.68</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.448</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.43</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.898</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.491</v>
+        <v>14.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.454</v>
+        <v>46.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.923</v>
+        <v>6.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.255</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44798.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.86</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.28</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.48</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
